--- a/vault/reports/모비릭스_DCF_IB_Grade.xlsx
+++ b/vault/reports/모비릭스_DCF_IB_Grade.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,11 +37,30 @@
     </font>
     <font>
       <b val="1"/>
+      <i val="1"/>
+      <color rgb="00808080"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +69,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-        <bgColor rgb="00366092"/>
+        <fgColor rgb="004F4F4F"/>
+        <bgColor rgb="004F4F4F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,20 +94,42 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,13 +503,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,85 +543,85 @@
           <t>PV of FCF</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Terminal Value (PV)</t>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Base</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="5" t="n">
         <v>0.0842634417837408</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>0.1006512557116544</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.0351</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>231.2159087194327</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>54.11192107982434</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>177.1039876396083</v>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Bull</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.07426344178374081</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <v>0.1006512557116544</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.0351</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>391.7630471971551</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>76.86904598157658</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>314.8940012155785</v>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Bear</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.1042634417837408</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>0.1006512557116544</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.0351</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>99.14856100879926</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>28.84511327352854</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>70.30344773527072</v>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -596,8 +643,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -606,119 +653,119 @@
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Value</t>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Risk-Free Rate</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="7" t="n">
         <v>0.035</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Market Risk Premium</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="7" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Cost of Debt</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="7" t="n">
         <v>0.045</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Tax Rate</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="7" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Terminal Growth Rate</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="7" t="n">
         <v>0.015</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Exit Multiple (EV/EBITDA)</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Base: D&amp;A Ratio</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="7" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Base: Capex Ratio</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="7" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Base: NWC Ratio</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="7" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Base: Revenue Growth</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="7" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Base: EBIT Margin</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -741,19 +788,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -817,215 +864,215 @@
           <t>Discount_Factor</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>PV_FCF</t>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>2026</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>5.500000000000001</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="B2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="n">
         <v>0.922285084476225</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>6.797241072589778</v>
+      <c r="M2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>2027</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>14.157</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.5499999999999998</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>13.607</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="n">
         <v>0.8506097770473177</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>11.57424723628285</v>
+      <c r="M3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>2028</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>133.1000000000001</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>23.95800000000001</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>3.993000000000001</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>19.96500000000001</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4.392300000000001</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>15.5727</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.993000000000001</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>3.993000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.6050000000000022</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>14.9677</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="n">
         <v>0.7845047100803882</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>11.74223114907023</v>
+      <c r="M4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>2029</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>146.4100000000001</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>26.35380000000001</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>4.392300000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>21.96150000000001</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>4.831530000000002</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>17.12997000000001</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.392300000000001</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4.392300000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.6654999999999998</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>16.46447000000001</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>0.7235369928084873</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>11.91265311198556</v>
+      <c r="M5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>2030</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>161.051</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>28.98918000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>4.831530000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.15765000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.314683000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.84296700000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.831530000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.831530000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.7320499999999992</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.11091700000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="n">
         <v>0.6673073765340495</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>12.08554850989592</v>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1047,19 +1094,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1123,215 +1170,215 @@
           <t>Discount_Factor</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>PV_FCF</t>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>2026</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>115</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="B2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="n">
         <v>0.9308703629898906</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>10.2768088074084</v>
+      <c r="M2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>2027</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>132.25</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>29.095</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>2.645</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>5.818999999999999</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>20.631</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.645</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>5.289999999999999</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.6899999999999995</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>17.296</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="n">
         <v>0.8665196326929305</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>14.98732356705693</v>
+      <c r="M3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>2028</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>152.0875</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>33.45925</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>3.04175</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>30.4175</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>6.69185</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>23.72565</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.04175</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>6.083499999999999</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.7934999999999999</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>19.8904</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="n">
         <v>0.8066174450227348</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>16.0439436284802</v>
+      <c r="M4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>2029</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>174.9006249999999</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>38.47813749999999</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>3.498012499999999</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>34.98012499999999</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>7.695627499999997</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>27.28449749999999</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.498012499999999</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>6.996024999999998</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.9125249999999987</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>22.87395999999999</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>0.7508562738422913</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>17.17505637361761</v>
+      <c r="M5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>2030</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>201.1357187499999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>44.24985812499999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>4.022714374999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.22714374999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.849971624999998</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>31.37717212499999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.022714374999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.045428749999997</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.04940375</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>26.30505399999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="n">
         <v>0.6989498521848103</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>18.38591360501345</v>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1353,19 +1400,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1429,215 +1476,215 @@
           <t>Discount_Factor</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>PV_FCF</t>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>2026</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>6.552</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>2.352000000000001</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="B2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="n">
         <v>0.905581007358786</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>2.129926529307866</v>
+      <c r="M2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>2027</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>110.25</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.9404</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>6.8796</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.205</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.3149999999999995</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>8.769600000000001</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="n">
         <v>0.8200769608889535</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>7.191746916211767</v>
+      <c r="M3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>2028</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>115.7625</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>13.8915</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>4.630500000000001</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>9.261000000000001</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.03742</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>7.22358</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>4.630500000000001</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.31525</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.3307500000000019</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>9.208079999999997</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="n">
         <v>0.7426461203535503</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>6.838344887905117</v>
+      <c r="M4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>2029</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>121.550625</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>14.586075</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>4.862025000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>9.724050000000002</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.139291</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.584759000000002</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.862025000000001</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.4310125</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.3472875000000002</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>9.668484000000003</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>0.6725262217808622</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>6.50230901486872</v>
+      <c r="M5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>2030</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>127.62815625</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.31537875</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>5.105126250000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.2102525</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.246255550000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.963996950000002</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.105126250000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.552563125000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.3646518749999998</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.1519082</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="n">
         <v>0.6090269733955116</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>6.182785925235078</v>
+      <c r="M6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,12 +1706,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1693,120 +1740,120 @@
           <t>WACC_8.93%</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>WACC_9.43%</t>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Source: DART 2024.3Q</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>1.00%</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>254.7</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>218.5</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>203.8</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>190.9</v>
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>1.25%</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>242.5</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>195.5</v>
+      <c r="B3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>1.50%</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>214.7</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>200.4</v>
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>1.75%</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>282.7</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>205.6</v>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2.00%</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>293.7</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>245.9</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>211.1</v>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
